--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 14-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 14-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62E1B8-BDDA-45CA-A6EA-27A6FEE048D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429EE81-EE69-4296-8EF1-869EE2895167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
@@ -2182,7 +2182,7 @@
   <dimension ref="B2:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>6.0681077660526217E-2</v>
+        <v>6.0686446349930367E-2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>6.0681077660526217E-2</v>
+        <v>6.0686446349930367E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2301,11 +2301,11 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>0.93933311356008209</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.93933311356008209</v>
       </c>
       <c r="J7" s="1">
@@ -2317,7 +2317,7 @@
         <v>6.0666886439917911E-2</v>
       </c>
       <c r="L7" s="1">
-        <f>F7*J7</f>
+        <f t="shared" ref="L7:L13" si="2">F7*J7</f>
         <v>0</v>
       </c>
       <c r="M7" s="1">
@@ -2325,7 +2325,7 @@
         <v>0.93933311356008209</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
+        <f t="shared" ref="N7:N13" si="3">F7*K7</f>
         <v>0</v>
       </c>
       <c r="O7" s="1">
@@ -2353,35 +2353,35 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>0.99999625083543664</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>0.99999625083543664</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+        <f t="shared" ref="J8:K13" si="4">1-H8</f>
         <v>3.7491645633602744E-6</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.7491645633602744E-6</v>
       </c>
       <c r="L8" s="1">
-        <f>F8*J8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
+        <f t="shared" ref="M8:M13" si="5">1-(1-F8)*J8</f>
         <v>0.99999625083543664</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
+        <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
         <v>0.99999625083543664</v>
       </c>
       <c r="R8" s="1"/>
@@ -2401,40 +2401,40 @@
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
+        <f t="shared" si="0"/>
         <v>0.99999554325999995</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
+        <f t="shared" si="1"/>
         <v>0.99999554325999995</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.4567400000472546E-6</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.4567400000472546E-6</v>
       </c>
       <c r="L9" s="1">
-        <f>F9*J9</f>
-        <v>4.4567400000472546E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99999554325999995</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
-        <v>4.4567400000472546E-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999554325999995</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2453,39 +2453,39 @@
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>F10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R10" s="1"/>
@@ -2505,40 +2505,40 @@
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>0.9999886413605209</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
+        <f t="shared" si="1"/>
         <v>0.9999886413605209</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1358639479097654E-5</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1358639479097654E-5</v>
       </c>
       <c r="L11" s="1">
-        <f>F11*J11</f>
-        <v>1.1358639479097654E-5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.9999886413605209</v>
       </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
-        <v>1.1358639479097654E-5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.9999886413605209</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2557,40 +2557,40 @@
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
+        <f t="shared" si="0"/>
         <v>0.99999999638020232</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999638020232</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.6197976838181489E-9</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.6197976838181489E-9</v>
       </c>
       <c r="L12" s="1">
-        <f>F12*J12</f>
-        <v>3.6197976838181489E-9</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99999999638020232</v>
       </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
-        <v>3.6197976838181489E-9</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999999638020232</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2609,40 +2609,40 @@
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
+        <f t="shared" si="0"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
+        <f t="shared" si="1"/>
         <v>0.99999874484129769</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2551587023068578E-6</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2551587023068578E-6</v>
       </c>
       <c r="L13" s="1">
-        <f>F13*J13</f>
-        <v>1.2551587023068578E-6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0.99999874484129769</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
-        <v>1.2551587023068578E-6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99999874484129769</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2665,11 +2665,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>1.1358639479097654E-5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>1.1358639479097654E-5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 14-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 14-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429EE81-EE69-4296-8EF1-869EE2895167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFADB11E-BA23-476A-8496-38C6D901F2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
-        <v>6.0686446349930367E-2</v>
+        <v>6.0681077660526217E-2</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,I2))</f>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>6.0686446349930367E-2</v>
+        <v>6.0681077660526217E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="1">
@@ -2422,19 +2422,19 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4567400000472546E-6</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>0.99999554325999995</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.4567400000472546E-6</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999554325999995</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="1">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="1">
@@ -2526,19 +2526,19 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.1358639479097654E-5</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>0.9999886413605209</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1358639479097654E-5</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>0.9999886413605209</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="1">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6197976838181489E-9</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>0.99999999638020232</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.6197976838181489E-9</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999999638020232</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="1">
@@ -2630,19 +2630,19 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2551587023068578E-6</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>0.99999874484129769</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2551587023068578E-6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
-        <v>0.99999874484129769</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2665,11 +2665,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>MAX(L7:L13)</f>
-        <v>0</v>
+        <v>1.1358639479097654E-5</v>
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0</v>
+        <v>1.1358639479097654E-5</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 14-2.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 14-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433007D-1A62-49DB-B04B-D444A7E54368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC761FF-7226-4825-B2EF-2745462A4851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Macrostabiliteit</t>
-  </si>
-  <si>
-    <t>Erosie van het buitentalud</t>
   </si>
   <si>
     <t>Duinafslag</t>
@@ -656,6 +653,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1948,19 +1948,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>28</v>
@@ -1985,7 +1985,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>28</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2011,21 +2011,21 @@
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>29</v>
@@ -2033,16 +2033,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>29</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -2067,16 +2067,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>29</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>29</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
@@ -2130,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2203,7 +2203,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2257,42 +2257,42 @@
         <v>49</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="70"/>
       <c r="H6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C7</f>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C7</f>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C7</f>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C7</f>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="31">
         <f>BSKW!C7</f>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2777,31 +2777,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="K2" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="54" t="s">
         <v>80</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="9">
         <v>20.93</v>
@@ -7410,12 +7410,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>47</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -7579,15 +7579,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -7660,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -7719,10 +7719,10 @@
         <v>71</v>
       </c>
       <c r="Y15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="Z15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -9577,15 +9577,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -9662,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -9721,10 +9721,10 @@
         <v>71</v>
       </c>
       <c r="Y15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="Z15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -11297,8 +11297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11322,7 +11322,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -11335,7 +11335,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -11343,15 +11343,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -11386,7 +11386,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -11455,10 +11455,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -11471,15 +11471,15 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="9">
         <v>0.21</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="9">
         <v>0.24</v>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="9">
         <v>0.34</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="9">
         <v>0.91</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="9">
         <v>1.44</v>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="9">
         <v>1.96</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="9">
         <v>2.4900000000000002</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="9">
         <v>3.01</v>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="9">
         <v>3.54</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9">
         <v>4.0599999999999996</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="9">
         <v>4.58</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="9">
         <v>5.1100000000000003</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="9">
         <v>5.64</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="9">
         <v>6.24</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="9">
         <v>6.84</v>
@@ -12631,7 +12631,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="9">
         <v>7.41</v>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="9">
         <v>7.94</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="9">
         <v>8.0399999999999991</v>
@@ -12847,7 +12847,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="9">
         <v>8.5399999999999991</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="9">
         <v>8.91</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="9">
         <v>9.34</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="9">
         <v>9.4600000000000009</v>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="9">
         <v>9.64</v>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="9">
         <v>9.76</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="9">
         <v>10.01</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="9">
         <v>10.59</v>
@@ -13423,7 +13423,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="9">
         <v>11.11</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="9">
         <v>11.64</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="9">
         <v>12.16</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="9">
         <v>12.69</v>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="9">
         <v>13.19</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="9">
         <v>13.46</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="9">
         <v>13.84</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="9">
         <v>14.06</v>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" s="9">
         <v>14.19</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="9">
         <v>14.49</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="9">
         <v>15.02</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="9">
         <v>15.54</v>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="9">
         <v>16.059999999999999</v>
@@ -14359,7 +14359,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C56" s="9">
         <v>16.59</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="9">
         <v>17.11</v>
@@ -14503,7 +14503,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="9">
         <v>17.71</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="9">
         <v>17.809999999999999</v>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" s="9">
         <v>17.850000000000001</v>
@@ -14719,7 +14719,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C61" s="9">
         <v>17.91</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" s="9">
         <v>18.29</v>
@@ -14863,7 +14863,7 @@
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" s="9">
         <v>18.48</v>
@@ -14935,7 +14935,7 @@
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" s="9">
         <v>18.559999999999999</v>
@@ -15005,7 +15005,7 @@
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="9">
         <v>18.64</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="9">
         <v>18.66</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="9">
         <v>18.75</v>
@@ -15219,7 +15219,7 @@
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="9">
         <v>19.670000000000002</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="9">
         <v>19.809999999999999</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70" s="9">
         <v>19.989999999999998</v>
@@ -15435,7 +15435,7 @@
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" s="9">
         <v>20.49</v>
@@ -15507,7 +15507,7 @@
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="9">
         <v>20.64</v>
@@ -15579,7 +15579,7 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" s="9">
         <v>20.69</v>
@@ -15651,7 +15651,7 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="9">
         <v>20.76</v>
@@ -15913,7 +15913,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -15926,7 +15926,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -15934,15 +15934,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16)</f>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16)</f>
@@ -16062,10 +16062,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16290,7 +16290,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -16303,7 +16303,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -16311,15 +16311,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -16354,7 +16354,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -16372,7 +16372,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -16423,10 +16423,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -16439,10 +16439,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -16517,7 +16517,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="9">
         <v>0.23085095799999999</v>
@@ -16659,7 +16659,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="9">
         <v>18.57818717</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="9">
         <v>18.61409317</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="9">
         <v>19.070850830000001</v>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="9">
         <v>19.13233735</v>
@@ -17227,7 +17227,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="9">
         <v>20.352428100000001</v>
@@ -17624,7 +17624,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -17637,7 +17637,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -17645,15 +17645,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -17688,7 +17688,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V32)</f>
@@ -17706,7 +17706,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N32)</f>
@@ -17757,10 +17757,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -17773,10 +17773,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -17851,7 +17851,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="9">
         <v>0.23085095799999999</v>
@@ -17991,7 +17991,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="9">
         <v>18.57818717</v>
@@ -18131,7 +18131,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="9">
         <v>18.61409317</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="9">
         <v>19.070850830000001</v>
@@ -18413,7 +18413,7 @@
     </row>
     <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="9">
         <v>19.13233735</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="9">
         <v>20.352428100000001</v>
@@ -18787,23 +18787,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G20 G22:G32">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I32">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K32">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18901,7 +18901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -18926,7 +18926,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -18939,7 +18939,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -18947,15 +18947,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -18990,7 +18990,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -19008,7 +19008,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -19059,10 +19059,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="38" t="s">
         <v>69</v>
@@ -19075,10 +19075,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -19153,7 +19153,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="9">
         <v>0.23085095799999999</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="9">
         <v>18.57818717</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="9">
         <v>18.61409317</v>
@@ -19575,7 +19575,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="9">
         <v>19.070850830000001</v>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="9">
         <v>19.13233735</v>
@@ -19857,7 +19857,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="9">
         <v>20.352428100000001</v>
@@ -20113,23 +20113,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G33">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I33">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K33">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
